--- a/LeetCode/meta_data.xlsx
+++ b/LeetCode/meta_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\+Machine_Learning_Journey\contributions\Data_Structure_and_Algorithms\DS_and_Algo\main\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD682A7-DEDE-420A-99EC-E4F5FBF43E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C10123-1809-451B-B413-9C8F5F72B014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11412" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Problem</t>
   </si>
@@ -33,12 +33,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution </t>
-  </si>
-  <si>
     <t>Tip/Comment</t>
   </si>
   <si>
@@ -48,20 +42,99 @@
     <t>two sum</t>
   </si>
   <si>
-    <t>solved</t>
-  </si>
-  <si>
-    <t>not solved</t>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>Solved?</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>two_sum.py</t>
+  </si>
+  <si>
+    <t>add_two_numbers.py</t>
+  </si>
+  <si>
+    <t>longest_sub.py</t>
+  </si>
+  <si>
+    <t>Longest substring</t>
+  </si>
+  <si>
+    <t>Median_two_arrays</t>
+  </si>
+  <si>
+    <t>median_two_arrays.py</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>arrays</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>hash</t>
+  </si>
+  <si>
+    <t>Category/ Approah</t>
+  </si>
+  <si>
+    <t>pointer</t>
+  </si>
+  <si>
+    <t>Think about simpler version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use dummy values </t>
+  </si>
+  <si>
+    <t>use dummy node</t>
+  </si>
+  <si>
+    <t>link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,13 +157,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -369,52 +453,299 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G3"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="8" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" customWidth="1"/>
+    <col min="8" max="9" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{E8088C75-8FDB-4403-9984-313EB41E6FD9}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{69C85CD3-84CA-4D6A-840E-9E806C42ADB3}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{0EE61AAE-3359-4CD1-9CC7-DB1CF567A337}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{27568403-A0D7-4FF9-8DC5-4118878E2563}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/LeetCode/meta_data.xlsx
+++ b/LeetCode/meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\+Machine_Learning_Journey\contributions\Data_Structure_and_Algorithms\DS_and_Algo\main\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C10123-1809-451B-B413-9C8F5F72B014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8528900E-26ED-4C52-8936-3743DAF29A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Problem</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>link</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>longest_sub_palindrom</t>
+  </si>
+  <si>
+    <t>Brute-Force, two separate cases (even / odd)</t>
+  </si>
+  <si>
+    <t>look at the size of problem. Somtime, the brute-force might be the only way!</t>
   </si>
 </sst>
 </file>
@@ -456,7 +468,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,7 +477,7 @@
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="7.77734375" customWidth="1"/>
     <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1"/>
     <col min="7" max="7" width="21.77734375" customWidth="1"/>
     <col min="8" max="9" width="12.5546875" customWidth="1"/>
   </cols>
@@ -588,14 +600,28 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -744,8 +770,9 @@
     <hyperlink ref="E3" r:id="rId2" xr:uid="{69C85CD3-84CA-4D6A-840E-9E806C42ADB3}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{0EE61AAE-3359-4CD1-9CC7-DB1CF567A337}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{27568403-A0D7-4FF9-8DC5-4118878E2563}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{4D3D49E8-195C-4898-9F2E-6D5211E9FC88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/LeetCode/meta_data.xlsx
+++ b/LeetCode/meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\+Machine_Learning_Journey\contributions\Data_Structure_and_Algorithms\DS_and_Algo\main\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8528900E-26ED-4C52-8936-3743DAF29A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1006CBB8-4414-43D4-92C3-535DA9831D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Problem</t>
   </si>
@@ -114,13 +114,25 @@
     <t>Longest Palindromic Substring</t>
   </si>
   <si>
-    <t>longest_sub_palindrom</t>
-  </si>
-  <si>
     <t>Brute-Force, two separate cases (even / odd)</t>
   </si>
   <si>
     <t>look at the size of problem. Somtime, the brute-force might be the only way!</t>
+  </si>
+  <si>
+    <t>zigzag conversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move pointer, and change direction if necessary </t>
+  </si>
+  <si>
+    <t>Instead of (I,j) in  a 2D list, sometimes  it is enough to just use one cursor of rows. // Also, try to consider more test cases (e.g. you can randomly generate `s` of different length, and consider `numRows` from 0 to len(s) )</t>
+  </si>
+  <si>
+    <t>longest_sub_palindrom.py</t>
+  </si>
+  <si>
+    <t>zigzag_convertor.py</t>
   </si>
 </sst>
 </file>
@@ -467,18 +479,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
     <col min="4" max="4" width="7.77734375" customWidth="1"/>
     <col min="5" max="5" width="9.44140625" customWidth="1"/>
     <col min="6" max="6" width="18.88671875" customWidth="1"/>
-    <col min="7" max="7" width="21.77734375" customWidth="1"/>
+    <col min="7" max="7" width="44" customWidth="1"/>
     <col min="8" max="9" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -600,7 +612,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -608,7 +620,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
@@ -617,21 +629,35 @@
         <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -771,8 +797,9 @@
     <hyperlink ref="E4" r:id="rId3" xr:uid="{0EE61AAE-3359-4CD1-9CC7-DB1CF567A337}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{27568403-A0D7-4FF9-8DC5-4118878E2563}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{4D3D49E8-195C-4898-9F2E-6D5211E9FC88}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{C55159F0-3A1B-49BC-A76B-60AFA1BF6194}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/LeetCode/meta_data.xlsx
+++ b/LeetCode/meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\+Machine_Learning_Journey\contributions\Data_Structure_and_Algorithms\DS_and_Algo\main\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1006CBB8-4414-43D4-92C3-535DA9831D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B741002-AD26-4186-A005-66F801AA5DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Problem</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>zigzag_convertor.py</t>
+  </si>
+  <si>
+    <t>reverse integer</t>
+  </si>
+  <si>
+    <t>reverse_int.py</t>
+  </si>
+  <si>
+    <t>string reverse</t>
   </si>
 </sst>
 </file>
@@ -479,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,12 +670,24 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
@@ -798,8 +819,9 @@
     <hyperlink ref="E5" r:id="rId4" xr:uid="{27568403-A0D7-4FF9-8DC5-4118878E2563}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{4D3D49E8-195C-4898-9F2E-6D5211E9FC88}"/>
     <hyperlink ref="E7" r:id="rId6" xr:uid="{C55159F0-3A1B-49BC-A76B-60AFA1BF6194}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{AE90AF8B-31EF-4651-8EF0-1DA01912C7CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/LeetCode/meta_data.xlsx
+++ b/LeetCode/meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\+Machine_Learning_Journey\contributions\Data_Structure_and_Algorithms\DS_and_Algo\main\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B741002-AD26-4186-A005-66F801AA5DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A74E15C-96BA-4463-B03D-0593D6A35150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>Problem</t>
   </si>
@@ -142,13 +142,28 @@
   </si>
   <si>
     <t>string reverse</t>
+  </si>
+  <si>
+    <t>regular expression match</t>
+  </si>
+  <si>
+    <t>my_re_match.py</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>string parsing</t>
+  </si>
+  <si>
+    <t>TBD! (for now: try to find different cases / scenarios)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,13 +187,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -194,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -203,6 +231,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -489,7 +520,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,14 +722,28 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -820,8 +865,9 @@
     <hyperlink ref="E6" r:id="rId5" xr:uid="{4D3D49E8-195C-4898-9F2E-6D5211E9FC88}"/>
     <hyperlink ref="E7" r:id="rId6" xr:uid="{C55159F0-3A1B-49BC-A76B-60AFA1BF6194}"/>
     <hyperlink ref="E8" r:id="rId7" xr:uid="{AE90AF8B-31EF-4651-8EF0-1DA01912C7CD}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{CEC3FCB5-3FD9-4D73-9B4D-E31D6188A662}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/LeetCode/meta_data.xlsx
+++ b/LeetCode/meta_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\+Machine_Learning_Journey\contributions\Data_Structure_and_Algorithms\DS_and_Algo\main\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A74E15C-96BA-4463-B03D-0593D6A35150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF771D7D-E848-499F-86C4-1ED2A3B1F465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16920" yWindow="324" windowWidth="11412" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>Problem</t>
   </si>
@@ -153,10 +153,34 @@
     <t>N</t>
   </si>
   <si>
-    <t>string parsing</t>
-  </si>
-  <si>
-    <t>TBD! (for now: try to find different cases / scenarios)</t>
+    <t>string to integer</t>
+  </si>
+  <si>
+    <t>string_to_int.py</t>
+  </si>
+  <si>
+    <t>iterating over string.</t>
+  </si>
+  <si>
+    <t>study regular expression (re)</t>
+  </si>
+  <si>
+    <t>Palindrom Number</t>
+  </si>
+  <si>
+    <t>skipped! (Easy)</t>
+  </si>
+  <si>
+    <t>Containr with most water</t>
+  </si>
+  <si>
+    <t>find_max_container.py</t>
+  </si>
+  <si>
+    <t>two pointers</t>
+  </si>
+  <si>
+    <t>note: a difficult question might have a simple idea and simple code. Think to see how we can narrow down a search space</t>
   </si>
 </sst>
 </file>
@@ -222,7 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -234,6 +258,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -517,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -722,58 +749,91 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>18</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -856,6 +916,26 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{E8088C75-8FDB-4403-9984-313EB41E6FD9}"/>
@@ -865,9 +945,12 @@
     <hyperlink ref="E6" r:id="rId5" xr:uid="{4D3D49E8-195C-4898-9F2E-6D5211E9FC88}"/>
     <hyperlink ref="E7" r:id="rId6" xr:uid="{C55159F0-3A1B-49BC-A76B-60AFA1BF6194}"/>
     <hyperlink ref="E8" r:id="rId7" xr:uid="{AE90AF8B-31EF-4651-8EF0-1DA01912C7CD}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{CEC3FCB5-3FD9-4D73-9B4D-E31D6188A662}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{CEC3FCB5-3FD9-4D73-9B4D-E31D6188A662}"/>
+    <hyperlink ref="E9" r:id="rId9" xr:uid="{0392EB3A-E1D3-45BE-9D6B-475894E882E3}"/>
+    <hyperlink ref="E10" r:id="rId10" xr:uid="{29DD6AD4-9796-4CCC-B2C0-DEED272C68AE}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{FFDF7BCE-F5E7-4CCF-84C0-1AF36DB6B686}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/LeetCode/meta_data.xlsx
+++ b/LeetCode/meta_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\+Machine_Learning_Journey\contributions\Data_Structure_and_Algorithms\DS_and_Algo\main\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF771D7D-E848-499F-86C4-1ED2A3B1F465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CC2DD5-5773-419C-9617-224ACEF68207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="324" windowWidth="11412" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11628" yWindow="0" windowWidth="11412" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
   <si>
     <t>Problem</t>
   </si>
@@ -181,6 +181,39 @@
   </si>
   <si>
     <t>note: a difficult question might have a simple idea and simple code. Think to see how we can narrow down a search space</t>
+  </si>
+  <si>
+    <t>integer to roman</t>
+  </si>
+  <si>
+    <t>integer_to_roman.py</t>
+  </si>
+  <si>
+    <t>Test function wriiten?</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>roman to integer</t>
+  </si>
+  <si>
+    <t>longest common prefix</t>
+  </si>
+  <si>
+    <t>longest_common_prefix.py</t>
+  </si>
+  <si>
+    <t>3Sum</t>
+  </si>
+  <si>
+    <t>three_sum.py</t>
+  </si>
+  <si>
+    <t>fix one, and use two pointers on the rest!</t>
+  </si>
+  <si>
+    <t>sorting, and two pointers</t>
   </si>
 </sst>
 </file>
@@ -546,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,7 +616,9 @@
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -605,9 +640,11 @@
         <v>19</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -629,9 +666,11 @@
       <c r="G3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -653,7 +692,9 @@
       <c r="G4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -677,7 +718,9 @@
       <c r="G5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -701,7 +744,9 @@
       <c r="G6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -725,7 +770,9 @@
       <c r="G7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -747,7 +794,9 @@
         <v>38</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -771,7 +820,9 @@
       <c r="G9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -790,7 +841,9 @@
         <v>27</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -810,7 +863,9 @@
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -834,47 +889,103 @@
       <c r="G12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
@@ -949,8 +1060,12 @@
     <hyperlink ref="E9" r:id="rId9" xr:uid="{0392EB3A-E1D3-45BE-9D6B-475894E882E3}"/>
     <hyperlink ref="E10" r:id="rId10" xr:uid="{29DD6AD4-9796-4CCC-B2C0-DEED272C68AE}"/>
     <hyperlink ref="E12" r:id="rId11" xr:uid="{FFDF7BCE-F5E7-4CCF-84C0-1AF36DB6B686}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{9D095A60-D593-46C3-9462-6A4115CEA91E}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{55DEE963-AE52-4AFE-B544-A5BDD3BB7E1A}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{FAD0FC42-F297-4737-BCDB-59070FFAB440}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{E82CCF2B-63B8-46A7-BE41-9E28C8D1CBEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/LeetCode/meta_data.xlsx
+++ b/LeetCode/meta_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\+Machine_Learning_Journey\contributions\Data_Structure_and_Algorithms\DS_and_Algo\main\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CC2DD5-5773-419C-9617-224ACEF68207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC7F9F2-2A9D-4C6F-A83E-6DCD4E4CA283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11628" yWindow="0" windowWidth="11412" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="71">
   <si>
     <t>Problem</t>
   </si>
@@ -210,10 +210,56 @@
     <t>three_sum.py</t>
   </si>
   <si>
-    <t>fix one, and use two pointers on the rest!</t>
-  </si>
-  <si>
     <t>sorting, and two pointers</t>
+  </si>
+  <si>
+    <t>3SumClosest</t>
+  </si>
+  <si>
+    <t>three_sum_closest.py</t>
+  </si>
+  <si>
+    <t>sorting, two pointers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fix one at idx, and then use two pointers at i=idx+1 and j=last index </t>
+  </si>
+  <si>
+    <t>fix one, and use two pointers on the rest! (Also: see `three_sum_closest.py` as it has cleaner / better implementation)</t>
+  </si>
+  <si>
+    <t>letter combination</t>
+  </si>
+  <si>
+    <t>letter_combinations.py</t>
+  </si>
+  <si>
+    <t>dynamic programming</t>
+  </si>
+  <si>
+    <r>
+      <t>use helper function to calculate output dynamically. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>How about recursively? Think</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -579,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -961,7 +1007,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -978,34 +1024,66 @@
         <v>27</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="2" t="s">
         <v>61</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
@@ -1064,8 +1142,10 @@
     <hyperlink ref="E14" r:id="rId13" xr:uid="{55DEE963-AE52-4AFE-B544-A5BDD3BB7E1A}"/>
     <hyperlink ref="E15" r:id="rId14" xr:uid="{FAD0FC42-F297-4737-BCDB-59070FFAB440}"/>
     <hyperlink ref="E16" r:id="rId15" xr:uid="{E82CCF2B-63B8-46A7-BE41-9E28C8D1CBEB}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{C66448A5-4730-4A3F-9E7F-B0661BF8FF46}"/>
+    <hyperlink ref="E18" r:id="rId17" xr:uid="{3A14DBCD-44F6-4850-A3E1-0F27F1BCF8C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/LeetCode/meta_data.xlsx
+++ b/LeetCode/meta_data.xlsx
@@ -8,24 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\+Machine_Learning_Journey\contributions\Data_Structure_and_Algorithms\DS_and_Algo\main\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC7F9F2-2A9D-4C6F-A83E-6DCD4E4CA283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF861E93-4508-42CE-A921-DAC80A9B9401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="89">
   <si>
     <t>Problem</t>
   </si>
@@ -260,6 +270,61 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>4Sum</t>
+  </si>
+  <si>
+    <t>Q: Could you do this in one pass? 
+(slow/fast pointers?)</t>
+  </si>
+  <si>
+    <t>Remove Nth Node From End of List</t>
+  </si>
+  <si>
+    <t>remove_Nth_node_linkedlist.py</t>
+  </si>
+  <si>
+    <t>traverse once, and then traverse again!</t>
+  </si>
+  <si>
+    <t>Valid Paranthesis</t>
+  </si>
+  <si>
+    <t>use stack (and hash)</t>
+  </si>
+  <si>
+    <t>understand that at somepoint after an opening char, you need the same closing char!</t>
+  </si>
+  <si>
+    <t>is_valid_paranthesis.py</t>
+  </si>
+  <si>
+    <t>Merge two sorted linkedlist</t>
+  </si>
+  <si>
+    <t>merge_two_sorted_linkedlist.py</t>
+  </si>
+  <si>
+    <t>traversing both parallel to each other and pick the smaller one</t>
+  </si>
+  <si>
+    <t>linkedlist traversal</t>
+  </si>
+  <si>
+    <t>generate paranthesis</t>
+  </si>
+  <si>
+    <t>generate_paranthesis.py</t>
+  </si>
+  <si>
+    <t>can you do it recursively?</t>
+  </si>
+  <si>
+    <t>Merge k sorted linkedlist</t>
+  </si>
+  <si>
+    <t>merged_k_sorted_linkedlist</t>
   </si>
 </sst>
 </file>
@@ -298,7 +363,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,6 +373,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,7 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -341,6 +412,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -623,21 +703,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="25.109375" customWidth="1"/>
     <col min="4" max="4" width="7.77734375" customWidth="1"/>
     <col min="5" max="5" width="9.44140625" customWidth="1"/>
     <col min="6" max="6" width="18.88671875" customWidth="1"/>
     <col min="7" max="7" width="44" customWidth="1"/>
-    <col min="8" max="9" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1086,44 +1168,294 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1144,8 +1476,14 @@
     <hyperlink ref="E16" r:id="rId15" xr:uid="{E82CCF2B-63B8-46A7-BE41-9E28C8D1CBEB}"/>
     <hyperlink ref="E17" r:id="rId16" xr:uid="{C66448A5-4730-4A3F-9E7F-B0661BF8FF46}"/>
     <hyperlink ref="E18" r:id="rId17" xr:uid="{3A14DBCD-44F6-4850-A3E1-0F27F1BCF8C0}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{3299EFDA-7E1E-4F0E-AC1A-847D934D8491}"/>
+    <hyperlink ref="E20" r:id="rId19" xr:uid="{AE801735-7D20-4F44-A95D-D8B315225B98}"/>
+    <hyperlink ref="E21" r:id="rId20" xr:uid="{0D843726-ABD3-40FD-856C-FEA7EE663562}"/>
+    <hyperlink ref="E22" r:id="rId21" xr:uid="{123D73E6-6AC3-49C2-B282-B953F06FEAAC}"/>
+    <hyperlink ref="E23" r:id="rId22" xr:uid="{B6A09A69-EED4-4987-B9D2-D839202498E9}"/>
+    <hyperlink ref="E24" r:id="rId23" xr:uid="{4C3720D3-35AE-447A-8984-8559BAE45742}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
--- a/LeetCode/meta_data.xlsx
+++ b/LeetCode/meta_data.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\+Machine_Learning_Journey\contributions\Data_Structure_and_Algorithms\DS_and_Algo\main\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AS17983\Desktop\NIMA\DS_and_Algo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF861E93-4508-42CE-A921-DAC80A9B9401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="93">
   <si>
     <t>Problem</t>
   </si>
@@ -324,13 +323,25 @@
     <t>Merge k sorted linkedlist</t>
   </si>
   <si>
-    <t>merged_k_sorted_linkedlist</t>
+    <t>swap_nodes.py</t>
+  </si>
+  <si>
+    <t>swap pairs of adjacent nodes in linkedlist</t>
+  </si>
+  <si>
+    <t>linkedlist understanding the pointer to next node</t>
+  </si>
+  <si>
+    <t>merge_k_sorted_linkedlist.py</t>
+  </si>
+  <si>
+    <t>Time Limit Exceeds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -396,7 +407,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -421,6 +432,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -702,27 +716,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="D17" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="25.08984375" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" customWidth="1"/>
+    <col min="6" max="6" width="18.90625" style="9" customWidth="1"/>
     <col min="7" max="7" width="44" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="17.36328125" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -748,7 +762,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -772,7 +786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -798,7 +812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -824,7 +838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -850,7 +864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -876,7 +890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -902,7 +916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -926,7 +940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -952,7 +966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -973,7 +987,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
@@ -995,7 +1009,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1021,7 +1035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1045,7 +1059,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1067,7 +1081,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1089,7 +1103,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1115,7 +1129,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1141,7 +1155,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1167,7 +1181,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -1185,7 +1199,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -1211,7 +1225,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
@@ -1237,7 +1251,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -1263,7 +1277,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -1279,7 +1293,7 @@
       <c r="E23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="2"/>
       <c r="G23" s="7" t="s">
         <v>86</v>
       </c>
@@ -1287,7 +1301,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>18</v>
       </c>
@@ -1295,7 +1309,7 @@
         <v>87</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>41</v>
@@ -1303,187 +1317,204 @@
       <c r="E24" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+    <row r="25" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H25" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="F26" s="2"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="F27" s="2"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="F28" s="2"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="F29" s="2"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="F30" s="2"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="F31" s="2"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="2"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="F33" s="2"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="F34" s="2"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="F35" s="2"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="F36" s="2"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="F37" s="2"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="F38" s="2"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="F39" s="2"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{E8088C75-8FDB-4403-9984-313EB41E6FD9}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{69C85CD3-84CA-4D6A-840E-9E806C42ADB3}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{0EE61AAE-3359-4CD1-9CC7-DB1CF567A337}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{27568403-A0D7-4FF9-8DC5-4118878E2563}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{4D3D49E8-195C-4898-9F2E-6D5211E9FC88}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{C55159F0-3A1B-49BC-A76B-60AFA1BF6194}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{AE90AF8B-31EF-4651-8EF0-1DA01912C7CD}"/>
-    <hyperlink ref="E11" r:id="rId8" xr:uid="{CEC3FCB5-3FD9-4D73-9B4D-E31D6188A662}"/>
-    <hyperlink ref="E9" r:id="rId9" xr:uid="{0392EB3A-E1D3-45BE-9D6B-475894E882E3}"/>
-    <hyperlink ref="E10" r:id="rId10" xr:uid="{29DD6AD4-9796-4CCC-B2C0-DEED272C68AE}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{FFDF7BCE-F5E7-4CCF-84C0-1AF36DB6B686}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{9D095A60-D593-46C3-9462-6A4115CEA91E}"/>
-    <hyperlink ref="E14" r:id="rId13" xr:uid="{55DEE963-AE52-4AFE-B544-A5BDD3BB7E1A}"/>
-    <hyperlink ref="E15" r:id="rId14" xr:uid="{FAD0FC42-F297-4737-BCDB-59070FFAB440}"/>
-    <hyperlink ref="E16" r:id="rId15" xr:uid="{E82CCF2B-63B8-46A7-BE41-9E28C8D1CBEB}"/>
-    <hyperlink ref="E17" r:id="rId16" xr:uid="{C66448A5-4730-4A3F-9E7F-B0661BF8FF46}"/>
-    <hyperlink ref="E18" r:id="rId17" xr:uid="{3A14DBCD-44F6-4850-A3E1-0F27F1BCF8C0}"/>
-    <hyperlink ref="E19" r:id="rId18" xr:uid="{3299EFDA-7E1E-4F0E-AC1A-847D934D8491}"/>
-    <hyperlink ref="E20" r:id="rId19" xr:uid="{AE801735-7D20-4F44-A95D-D8B315225B98}"/>
-    <hyperlink ref="E21" r:id="rId20" xr:uid="{0D843726-ABD3-40FD-856C-FEA7EE663562}"/>
-    <hyperlink ref="E22" r:id="rId21" xr:uid="{123D73E6-6AC3-49C2-B282-B953F06FEAAC}"/>
-    <hyperlink ref="E23" r:id="rId22" xr:uid="{B6A09A69-EED4-4987-B9D2-D839202498E9}"/>
-    <hyperlink ref="E24" r:id="rId23" xr:uid="{4C3720D3-35AE-447A-8984-8559BAE45742}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E11" r:id="rId8"/>
+    <hyperlink ref="E9" r:id="rId9"/>
+    <hyperlink ref="E10" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13"/>
+    <hyperlink ref="E15" r:id="rId14"/>
+    <hyperlink ref="E16" r:id="rId15"/>
+    <hyperlink ref="E17" r:id="rId16"/>
+    <hyperlink ref="E18" r:id="rId17"/>
+    <hyperlink ref="E19" r:id="rId18"/>
+    <hyperlink ref="E20" r:id="rId19"/>
+    <hyperlink ref="E21" r:id="rId20"/>
+    <hyperlink ref="E22" r:id="rId21"/>
+    <hyperlink ref="E23" r:id="rId22"/>
+    <hyperlink ref="E24" r:id="rId23"/>
+    <hyperlink ref="E25" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>